--- a/pred_ohlcv/54_21/2019-11-01 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CHR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>4497805.5787</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4514793.0607</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4514774.841</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4518841.7303</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4469848.4858</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4469848.4858</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4105170.76978321</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4555309.42768321</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4581422.953383209</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4578598.36598321</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4570643.46878321</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4583758.07498321</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4549753.95108321</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4389742.95108321</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4175604.52869253</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4156412.74289253</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4156412.74289253</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4154800.20409253</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4154811.20409253</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4160952.97715136</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4176422.63825136</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4183728.64855136</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4093215.32485136</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4079617.77785136</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4079638.77785136</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4073009.72365136</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4076021.79135136</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3983786.51375136</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4073930.56015136</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>4064859.573651359</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>4058793.65205136</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4057791.34615136</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CHR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>4524286.291900001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4514793.0607</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4514774.841</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4518841.7303</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4469848.4858</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4467987.914799999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4476504.8828</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4105170.76978321</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4555309.42768321</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4581422.953383209</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4578598.36598321</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4570643.46878321</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4583758.07498321</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4549753.95108321</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4389742.95108321</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4175604.52869253</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4193251.35829253</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4278729.269292531</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4156412.74289253</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4154811.20409253</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4160952.97715136</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4150977.97715136</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4150987.97715136</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4176935.99865136</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4176855.01325136</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4183728.64855136</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4093215.32485136</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4079617.77785136</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4073009.72365136</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4076021.79135136</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3983786.51375136</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4073930.56015136</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>4064859.573651359</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>4058793.65205136</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4057791.34615136</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
